--- a/Datasets/Education (Bryan)/enrollment/enrolment_by_age (1984-2018).xlsx
+++ b/Datasets/Education (Bryan)/enrollment/enrolment_by_age (1984-2018).xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\github stuff\BAVP\Education\enrollment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\github stuff\BAVP\Datasets\Education (Bryan)\enrollment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEA4AB-A98F-4A08-B381-499C19A830AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56F518-CCCB-4F3A-B413-B66E94FC0C14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="primary-enrolment-by-age" sheetId="1" r:id="rId1"/>
+    <sheet name="enrolment" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1611"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A1286" workbookViewId="0">
+      <selection activeCell="A1306" sqref="A1306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
